--- a/ReadingListInformation/CBRO/Marvel/Events/XLSXandCSV/[Marvel] Jonathan Hickman’s Marvel (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/Marvel/Events/XLSXandCSV/[Marvel] Jonathan Hickman’s Marvel (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="368">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Dark Reign: New Nation</t>
   </si>
   <si>
@@ -403,6 +403,9 @@
     <t>S.H.I.E.L.D.: Infinity</t>
   </si>
   <si>
+    <t>S.H.I.E.L.D. by Hickman &amp; Weaver</t>
+  </si>
+  <si>
     <t>New Avengers Annual</t>
   </si>
   <si>
@@ -412,6 +415,9 @@
     <t>Ultimate Fallout</t>
   </si>
   <si>
+    <t>Marvel</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -604,22 +610,22 @@
     <t>https://comicvine.gamespot.com/issue/4000-268515/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-204514/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-218552/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-227823/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-237112/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-253654/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-262808/</t>
+    <t>https://comicvine.gamespot.com/issue/4000-272466/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/issue/4000-283866/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/issue/4000-295920/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/issue/4000-306728/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/issue/4000-670754/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/issue/4000-673031/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/ff-1-the-club/4000-266491/</t>
@@ -1112,9 +1118,6 @@
   </si>
   <si>
     <t>https://comicvine.gamespot.com/avengers-44-one-was-life-one-was-death/4000-487201/</t>
-  </si>
-  <si>
-    <t>Marvel</t>
   </si>
 </sst>
 </file>
@@ -1575,16 +1578,16 @@
         <v>39</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O2" s="4">
+        <v>134</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="4">
         <v>59</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1625,16 +1628,16 @@
         <v>39</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="4">
         <v>30</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1675,16 +1678,16 @@
         <v>40</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O4" s="4">
+        <v>134</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="4">
         <v>31</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1725,16 +1728,16 @@
         <v>41</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O5" s="4">
+        <v>134</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="4">
         <v>30</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1775,16 +1778,16 @@
         <v>42</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" s="4">
+        <v>134</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="4">
         <v>31</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1825,16 +1828,16 @@
         <v>43</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O7" s="4">
+        <v>134</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="4">
         <v>31</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1875,16 +1878,16 @@
         <v>44</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O8" s="4">
-        <v>123</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="4">
+        <v>-123</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1925,16 +1928,16 @@
         <v>39</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O9" s="4">
+        <v>134</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" s="4">
         <v>31</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1975,16 +1978,16 @@
         <v>40</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O10" s="4">
+        <v>134</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="4">
         <v>30</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2025,16 +2028,16 @@
         <v>41</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O11" s="4">
+        <v>134</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="4">
         <v>61</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2075,16 +2078,16 @@
         <v>42</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" s="4">
+        <v>134</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="4">
         <v>30</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2125,16 +2128,16 @@
         <v>43</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O13" s="4">
-        <v>121</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="4">
+        <v>-121</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2175,16 +2178,16 @@
         <v>39</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O14" s="4">
+        <v>134</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="4">
         <v>122</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2225,16 +2228,16 @@
         <v>45</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O15" s="4">
+        <v>134</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" s="4">
         <v>60</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2275,16 +2278,16 @@
         <v>46</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O16" s="4">
+        <v>134</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="4">
         <v>1</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2325,16 +2328,16 @@
         <v>47</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O17" s="4">
+        <v>134</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="4">
         <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2375,16 +2378,16 @@
         <v>39</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="4">
+        <v>134</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="4">
         <v>31</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2425,16 +2428,16 @@
         <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O19" s="4">
+        <v>134</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="4">
         <v>31</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2475,16 +2478,16 @@
         <v>49</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O20" s="4">
+        <v>134</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="4">
         <v>28</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2525,16 +2528,16 @@
         <v>50</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O21" s="4">
+        <v>134</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="4">
         <v>31</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2575,16 +2578,16 @@
         <v>51</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O22" s="4">
+        <v>134</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="4">
         <v>30</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2625,16 +2628,16 @@
         <v>52</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O23" s="4">
+        <v>134</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="4">
         <v>31</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2675,16 +2678,16 @@
         <v>53</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O24" s="4">
+        <v>134</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="4">
         <v>30</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2725,16 +2728,16 @@
         <v>54</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O25" s="4">
-        <v>263</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="4">
+        <v>-263</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2775,16 +2778,16 @@
         <v>55</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O26" s="4">
+        <v>134</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="4">
         <v>31</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2825,16 +2828,16 @@
         <v>56</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O27" s="4">
+        <v>134</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P27" s="4">
         <v>30</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2875,16 +2878,16 @@
         <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="O28" s="4">
+        <v>134</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="4">
         <v>31</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2925,16 +2928,16 @@
         <v>58</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O29" s="4">
+        <v>134</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29" s="4">
         <v>31</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2975,16 +2978,16 @@
         <v>59</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O30" s="4">
+        <v>134</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="4">
         <v>28</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -3025,16 +3028,16 @@
         <v>60</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O31" s="4">
+        <v>134</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" s="4">
         <v>21</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -3075,16 +3078,16 @@
         <v>61</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O32" s="4">
+        <v>134</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P32" s="4">
         <v>40</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -3125,16 +3128,16 @@
         <v>62</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O33" s="4">
+        <v>134</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P33" s="4">
         <v>31</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -3175,16 +3178,16 @@
         <v>63</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O34" s="4">
+        <v>134</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P34" s="4">
         <v>19</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -3225,16 +3228,16 @@
         <v>39</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O35" s="4">
+        <v>134</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P35" s="4">
         <v>62</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -3275,16 +3278,16 @@
         <v>40</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="O36" s="4">
+        <v>134</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="4">
         <v>61</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -3325,16 +3328,16 @@
         <v>41</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O37" s="4">
+        <v>134</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P37" s="4">
         <v>61</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -3375,16 +3378,16 @@
         <v>42</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O38" s="4">
+        <v>134</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="4">
         <v>59</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -3425,16 +3428,16 @@
         <v>43</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O39" s="4">
+        <v>134</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P39" s="4">
         <v>61</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3475,16 +3478,16 @@
         <v>44</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O40" s="4">
-        <v>293</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P40" s="4">
+        <v>-293</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3525,16 +3528,16 @@
         <v>64</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O41" s="4">
+        <v>134</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P41" s="4">
         <v>31</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3575,16 +3578,16 @@
         <v>65</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O42" s="4">
+        <v>134</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P42" s="4">
         <v>31</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3625,16 +3628,16 @@
         <v>66</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O43" s="4">
+        <v>134</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P43" s="4">
         <v>30</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3675,16 +3678,16 @@
         <v>67</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O44" s="4">
-        <v>132</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P44" s="4">
+        <v>-132</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3725,16 +3728,16 @@
         <v>39</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O45" s="4">
+        <v>134</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P45" s="4">
         <v>61</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3775,16 +3778,16 @@
         <v>68</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O46" s="4">
+        <v>134</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P46" s="4">
         <v>31</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3825,16 +3828,16 @@
         <v>69</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O47" s="4">
+        <v>134</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P47" s="4">
         <v>30</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3875,16 +3878,16 @@
         <v>70</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O48" s="4">
+        <v>134</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P48" s="4">
         <v>31</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3925,16 +3928,16 @@
         <v>71</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O49" s="4">
+        <v>134</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P49" s="4">
         <v>30</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3975,16 +3978,16 @@
         <v>72</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O50" s="4">
+        <v>134</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P50" s="4">
         <v>31</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -4025,16 +4028,16 @@
         <v>73</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O51" s="4">
-        <v>32</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P51" s="4">
+        <v>-32</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -4075,16 +4078,16 @@
         <v>74</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O52" s="4">
+        <v>134</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P52" s="4">
         <v>31</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -4125,16 +4128,16 @@
         <v>75</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O53" s="4">
+        <v>134</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P53" s="4">
         <v>11</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -4175,16 +4178,16 @@
         <v>76</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O54" s="4">
+        <v>134</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P54" s="4">
         <v>31</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -4225,16 +4228,16 @@
         <v>77</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O55" s="4">
+        <v>134</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P55" s="4">
         <v>48</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -4275,16 +4278,16 @@
         <v>78</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O56" s="4">
+        <v>134</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P56" s="4">
         <v>30</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -4325,16 +4328,16 @@
         <v>79</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O57" s="4">
-        <v>88</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P57" s="4">
+        <v>-88</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4375,16 +4378,16 @@
         <v>80</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O58" s="4">
+        <v>134</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P58" s="4">
         <v>28</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -4425,16 +4428,16 @@
         <v>81</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O59" s="4">
+        <v>134</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" s="4">
         <v>61</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4475,16 +4478,16 @@
         <v>82</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O60" s="4">
+        <v>134</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P60" s="4">
         <v>31</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4525,16 +4528,16 @@
         <v>83</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O61" s="4">
+        <v>134</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P61" s="4">
         <v>30</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4575,16 +4578,16 @@
         <v>84</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O62" s="4">
+        <v>134</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P62" s="4">
         <v>31</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4625,16 +4628,16 @@
         <v>85</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O63" s="4">
-        <v>32</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P63" s="4">
+        <v>-32</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4675,16 +4678,16 @@
         <v>39</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O64" s="4">
-        <v>365</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P64" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4704,37 +4707,37 @@
         <v>125</v>
       </c>
       <c r="F65" s="3">
-        <v>40359</v>
+        <v>40756</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H65" s="2">
-        <v>32430</v>
+        <v>40434</v>
       </c>
       <c r="I65" s="2">
-        <v>204514</v>
+        <v>272466</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K65" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>39</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O65" s="4">
-        <v>62</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P65" s="4">
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4754,37 +4757,37 @@
         <v>125</v>
       </c>
       <c r="F66" s="3">
-        <v>40421</v>
+        <v>40817</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H66" s="2">
-        <v>32430</v>
+        <v>40434</v>
       </c>
       <c r="I66" s="2">
-        <v>218552</v>
+        <v>283866</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K66" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>40</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O66" s="4">
+        <v>134</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P66" s="4">
         <v>61</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4804,37 +4807,37 @@
         <v>125</v>
       </c>
       <c r="F67" s="3">
-        <v>40482</v>
+        <v>40878</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H67" s="2">
-        <v>32430</v>
+        <v>40434</v>
       </c>
       <c r="I67" s="2">
-        <v>227823</v>
+        <v>295920</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K67" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>41</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O67" s="4">
-        <v>61</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P67" s="4">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4854,37 +4857,37 @@
         <v>125</v>
       </c>
       <c r="F68" s="3">
-        <v>40543</v>
+        <v>40940</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H68" s="2">
-        <v>32430</v>
+        <v>40434</v>
       </c>
       <c r="I68" s="2">
-        <v>237112</v>
+        <v>306728</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>21</v>
       </c>
       <c r="K68" s="2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O68" s="4">
-        <v>59</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P68" s="4">
+        <v>2342</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4904,37 +4907,37 @@
         <v>125</v>
       </c>
       <c r="F69" s="3">
-        <v>40602</v>
+        <v>43282</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H69" s="2">
-        <v>32430</v>
+        <v>111071</v>
       </c>
       <c r="I69" s="2">
-        <v>253654</v>
+        <v>670754</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="K69" s="2">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="O69" s="4">
-        <v>61</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P69" s="4">
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4954,37 +4957,37 @@
         <v>125</v>
       </c>
       <c r="F70" s="3">
-        <v>40663</v>
+        <v>43313</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>126</v>
       </c>
       <c r="H70" s="2">
-        <v>32430</v>
+        <v>111071</v>
       </c>
       <c r="I70" s="2">
-        <v>262808</v>
+        <v>673031</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>21</v>
+        <v>129</v>
       </c>
       <c r="K70" s="2">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>44</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O70" s="4">
-        <v>1</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P70" s="4">
+        <v>-2649</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -5025,16 +5028,16 @@
         <v>39</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O71" s="4">
+        <v>134</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P71" s="4">
         <v>31</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -5075,16 +5078,16 @@
         <v>40</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O72" s="4">
+        <v>134</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P72" s="4">
         <v>30</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -5125,16 +5128,16 @@
         <v>41</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O73" s="4">
+        <v>134</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P73" s="4">
         <v>0</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -5175,16 +5178,16 @@
         <v>42</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O74" s="4">
+        <v>134</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P74" s="4">
         <v>31</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -5225,16 +5228,16 @@
         <v>43</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O75" s="4">
+        <v>134</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="P75" s="4">
         <v>31</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -5275,16 +5278,16 @@
         <v>44</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O76" s="4">
+        <v>134</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P76" s="4">
         <v>0</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -5325,16 +5328,16 @@
         <v>45</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O77" s="4">
+        <v>134</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P77" s="4">
         <v>30</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -5375,16 +5378,16 @@
         <v>46</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="O78" s="4">
+        <v>134</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P78" s="4">
         <v>31</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -5425,16 +5428,16 @@
         <v>47</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O79" s="4">
+        <v>134</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P79" s="4">
         <v>30</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5475,16 +5478,16 @@
         <v>48</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O80" s="4">
+        <v>134</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P80" s="4">
         <v>0</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5525,16 +5528,16 @@
         <v>49</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O81" s="4">
+        <v>134</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P81" s="4">
         <v>31</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5575,16 +5578,16 @@
         <v>87</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="O82" s="4">
+        <v>134</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P82" s="4">
         <v>0</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5625,16 +5628,16 @@
         <v>50</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O83" s="4">
+        <v>134</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P83" s="4">
         <v>31</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5675,16 +5678,16 @@
         <v>88</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="O84" s="4">
+        <v>134</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P84" s="4">
         <v>0</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5725,16 +5728,16 @@
         <v>51</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O85" s="4">
+        <v>134</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P85" s="4">
         <v>29</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5775,16 +5778,16 @@
         <v>89</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O86" s="4">
+        <v>134</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P86" s="4">
         <v>0</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5825,16 +5828,16 @@
         <v>52</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O87" s="4">
+        <v>134</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P87" s="4">
         <v>31</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5875,16 +5878,16 @@
         <v>90</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="O88" s="4">
+        <v>134</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P88" s="4">
         <v>0</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5925,16 +5928,16 @@
         <v>53</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O89" s="4">
+        <v>134</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P89" s="4">
         <v>30</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5975,16 +5978,16 @@
         <v>91</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="O90" s="4">
+        <v>134</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="P90" s="4">
         <v>0</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -6025,16 +6028,16 @@
         <v>54</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O91" s="4">
+        <v>134</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P91" s="4">
         <v>31</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -6075,16 +6078,16 @@
         <v>92</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="O92" s="4">
+        <v>134</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P92" s="4">
         <v>30</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -6125,16 +6128,16 @@
         <v>93</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="O93" s="4">
+        <v>134</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P93" s="4">
         <v>0</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -6175,16 +6178,16 @@
         <v>94</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O94" s="4">
-        <v>30</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P94" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -6225,16 +6228,16 @@
         <v>68</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O95" s="4">
+        <v>134</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P95" s="4">
         <v>30</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -6275,16 +6278,16 @@
         <v>69</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="O96" s="4">
+        <v>134</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P96" s="4">
         <v>31</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -6325,16 +6328,16 @@
         <v>95</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O97" s="4">
+        <v>134</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P97" s="4">
         <v>31</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -6375,16 +6378,16 @@
         <v>96</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O98" s="4">
-        <v>31</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P98" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -6425,16 +6428,16 @@
         <v>70</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="O99" s="4">
+        <v>134</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P99" s="4">
         <v>31</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6475,16 +6478,16 @@
         <v>71</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="O100" s="4">
+        <v>134</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P100" s="4">
         <v>30</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6525,16 +6528,16 @@
         <v>72</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O101" s="4">
+        <v>134</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P101" s="4">
         <v>0</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -6575,16 +6578,16 @@
         <v>97</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O102" s="4">
+        <v>134</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P102" s="4">
         <v>31</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -6625,16 +6628,16 @@
         <v>98</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O103" s="4">
+        <v>134</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="P103" s="4">
         <v>0</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -6675,16 +6678,16 @@
         <v>73</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O104" s="4">
+        <v>134</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P104" s="4">
         <v>30</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -6725,16 +6728,16 @@
         <v>99</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="O105" s="4">
+        <v>134</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="P105" s="4">
         <v>0</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -6775,16 +6778,16 @@
         <v>80</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="O106" s="4">
+        <v>134</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="P106" s="4">
         <v>102</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -6825,16 +6828,16 @@
         <v>39</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="O107" s="4">
+        <v>134</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="P107" s="4">
         <v>14</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -6875,16 +6878,16 @@
         <v>40</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="O108" s="4">
+        <v>134</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P108" s="4">
         <v>5</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -6925,16 +6928,16 @@
         <v>41</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="O109" s="4">
-        <v>59</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P109" s="4">
+        <v>-59</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -6975,16 +6978,16 @@
         <v>39</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O110" s="4">
+        <v>134</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="P110" s="4">
         <v>0</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -7025,16 +7028,16 @@
         <v>40</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="O111" s="4">
+        <v>134</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="P111" s="4">
         <v>47</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -7075,16 +7078,16 @@
         <v>41</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="O112" s="4">
+        <v>134</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="P112" s="4">
         <v>7</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -7125,16 +7128,16 @@
         <v>42</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="O113" s="4">
+        <v>134</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P113" s="4">
         <v>34</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -7175,16 +7178,16 @@
         <v>43</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="O114" s="4">
+        <v>134</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="P114" s="4">
         <v>31</v>
-      </c>
-      <c r="P114" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -7225,16 +7228,16 @@
         <v>42</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="O115" s="4">
+        <v>134</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P115" s="4">
         <v>1</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -7275,16 +7278,16 @@
         <v>43</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="O116" s="4">
+        <v>134</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="P116" s="4">
         <v>30</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7325,16 +7328,16 @@
         <v>44</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="O117" s="4">
-        <v>62</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="P117" s="4">
+        <v>-62</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -7375,16 +7378,16 @@
         <v>44</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="O118" s="4">
+        <v>134</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="P118" s="4">
         <v>1</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -7425,16 +7428,16 @@
         <v>45</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="O119" s="4">
+        <v>134</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="P119" s="4">
         <v>30</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -7475,16 +7478,16 @@
         <v>46</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="O120" s="4">
+        <v>134</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P120" s="4">
         <v>30</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -7525,16 +7528,16 @@
         <v>47</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="O121" s="4">
+        <v>134</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="P121" s="4">
         <v>0</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -7575,16 +7578,16 @@
         <v>48</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="O122" s="4">
+        <v>134</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="P122" s="4">
         <v>1</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -7625,16 +7628,16 @@
         <v>49</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="O123" s="4">
-        <v>1</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="P123" s="4">
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -7675,16 +7678,16 @@
         <v>39</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="O124" s="4">
+        <v>134</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="P124" s="4">
         <v>1</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -7725,16 +7728,16 @@
         <v>40</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="O125" s="4">
+        <v>134</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="P125" s="4">
         <v>61</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -7775,16 +7778,16 @@
         <v>41</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="O126" s="4">
+        <v>134</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="P126" s="4">
         <v>1</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -7825,16 +7828,16 @@
         <v>42</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="O127" s="4">
+        <v>134</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="P127" s="4">
         <v>30</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -7875,16 +7878,16 @@
         <v>43</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="O128" s="4">
-        <v>154</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="P128" s="4">
+        <v>-154</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -7925,16 +7928,16 @@
         <v>100</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="O129" s="4">
+        <v>134</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="P129" s="4">
         <v>31</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -7975,16 +7978,16 @@
         <v>39</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="O130" s="4">
+        <v>134</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="P130" s="4">
         <v>30</v>
-      </c>
-      <c r="P130" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -8025,16 +8028,16 @@
         <v>40</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="O131" s="4">
+        <v>134</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="P131" s="4">
         <v>62</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -8075,16 +8078,16 @@
         <v>41</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="O132" s="4">
+        <v>134</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P132" s="4">
         <v>0</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -8125,16 +8128,16 @@
         <v>42</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="O133" s="4">
-        <v>31</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P133" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -8175,16 +8178,16 @@
         <v>50</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="O134" s="4">
+        <v>134</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="P134" s="4">
         <v>31</v>
-      </c>
-      <c r="P134" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -8225,16 +8228,16 @@
         <v>51</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="O135" s="4">
+        <v>134</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P135" s="4">
         <v>30</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -8275,16 +8278,16 @@
         <v>43</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="O136" s="4">
+        <v>134</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="P136" s="4">
         <v>61</v>
-      </c>
-      <c r="P136" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -8325,16 +8328,16 @@
         <v>44</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="O137" s="4">
+        <v>134</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="P137" s="4">
         <v>31</v>
-      </c>
-      <c r="P137" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -8375,16 +8378,16 @@
         <v>45</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="O138" s="4">
-        <v>152</v>
-      </c>
-      <c r="P138" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="P138" s="4">
+        <v>-152</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -8425,16 +8428,16 @@
         <v>45</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="O139" s="4">
+        <v>134</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="P139" s="4">
         <v>242</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8475,16 +8478,16 @@
         <v>81</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="O140" s="4">
-        <v>31</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="P140" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -8525,16 +8528,16 @@
         <v>51</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="O141" s="4">
+        <v>134</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="P141" s="4">
         <v>61</v>
-      </c>
-      <c r="P141" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -8575,16 +8578,16 @@
         <v>52</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="O142" s="4">
+        <v>134</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="P142" s="4">
         <v>31</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -8625,16 +8628,16 @@
         <v>53</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="O143" s="4">
+        <v>134</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="P143" s="4">
         <v>92</v>
-      </c>
-      <c r="P143" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -8675,16 +8678,16 @@
         <v>102</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="O144" s="4">
+        <v>134</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="P144" s="4">
         <v>30</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="145" spans="1:16">
@@ -8725,16 +8728,16 @@
         <v>103</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="O145" s="4">
+        <v>134</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="P145" s="4">
         <v>0</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="146" spans="1:16">
@@ -8775,16 +8778,16 @@
         <v>104</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="O146" s="4">
+        <v>134</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="P146" s="4">
         <v>31</v>
-      </c>
-      <c r="P146" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="147" spans="1:16">
@@ -8825,16 +8828,16 @@
         <v>105</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="O147" s="4">
-        <v>214</v>
-      </c>
-      <c r="P147" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="P147" s="4">
+        <v>-214</v>
       </c>
     </row>
     <row r="148" spans="1:16">
@@ -8875,16 +8878,16 @@
         <v>82</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="O148" s="4">
+        <v>134</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="P148" s="4">
         <v>30</v>
-      </c>
-      <c r="P148" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="149" spans="1:16">
@@ -8925,16 +8928,16 @@
         <v>83</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="O149" s="4">
+        <v>134</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="P149" s="4">
         <v>31</v>
-      </c>
-      <c r="P149" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="150" spans="1:16">
@@ -8975,16 +8978,16 @@
         <v>84</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="O150" s="4">
+        <v>134</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="P150" s="4">
         <v>30</v>
-      </c>
-      <c r="P150" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="151" spans="1:16">
@@ -9025,16 +9028,16 @@
         <v>85</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="O151" s="4">
-        <v>30</v>
-      </c>
-      <c r="P151" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="P151" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="152" spans="1:16">
@@ -9075,16 +9078,16 @@
         <v>54</v>
       </c>
       <c r="M152" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="O152" s="4">
+        <v>134</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="P152" s="4">
         <v>30</v>
-      </c>
-      <c r="P152" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="153" spans="1:16">
@@ -9125,16 +9128,16 @@
         <v>68</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="O153" s="4">
+        <v>134</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="P153" s="4">
         <v>31</v>
-      </c>
-      <c r="P153" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:16">
@@ -9175,16 +9178,16 @@
         <v>107</v>
       </c>
       <c r="M154" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="O154" s="4">
+        <v>134</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="P154" s="4">
         <v>0</v>
-      </c>
-      <c r="P154" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="155" spans="1:16">
@@ -9225,16 +9228,16 @@
         <v>108</v>
       </c>
       <c r="M155" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="O155" s="4">
+        <v>134</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="P155" s="4">
         <v>31</v>
-      </c>
-      <c r="P155" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="156" spans="1:16">
@@ -9275,16 +9278,16 @@
         <v>109</v>
       </c>
       <c r="M156" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="O156" s="4">
+        <v>134</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="P156" s="4">
         <v>30</v>
-      </c>
-      <c r="P156" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:16">
@@ -9325,16 +9328,16 @@
         <v>110</v>
       </c>
       <c r="M157" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="O157" s="4">
+        <v>134</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="P157" s="4">
         <v>0</v>
-      </c>
-      <c r="P157" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:16">
@@ -9375,16 +9378,16 @@
         <v>111</v>
       </c>
       <c r="M158" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O158" s="4">
+        <v>134</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P158" s="4">
         <v>31</v>
-      </c>
-      <c r="P158" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="159" spans="1:16">
@@ -9425,16 +9428,16 @@
         <v>112</v>
       </c>
       <c r="M159" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O159" s="4">
-        <v>92</v>
-      </c>
-      <c r="P159" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P159" s="4">
+        <v>-92</v>
       </c>
     </row>
     <row r="160" spans="1:16">
@@ -9475,16 +9478,16 @@
         <v>69</v>
       </c>
       <c r="M160" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="O160" s="4">
+        <v>134</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="P160" s="4">
         <v>31</v>
-      </c>
-      <c r="P160" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -9525,16 +9528,16 @@
         <v>70</v>
       </c>
       <c r="M161" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="O161" s="4">
+        <v>134</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="P161" s="4">
         <v>0</v>
-      </c>
-      <c r="P161" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -9575,16 +9578,16 @@
         <v>71</v>
       </c>
       <c r="M162" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="O162" s="4">
+        <v>134</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="P162" s="4">
         <v>30</v>
-      </c>
-      <c r="P162" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -9625,16 +9628,16 @@
         <v>72</v>
       </c>
       <c r="M163" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="O163" s="4">
+        <v>134</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P163" s="4">
         <v>31</v>
-      </c>
-      <c r="P163" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -9675,16 +9678,16 @@
         <v>73</v>
       </c>
       <c r="M164" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="O164" s="4">
+        <v>134</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="P164" s="4">
         <v>0</v>
-      </c>
-      <c r="P164" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -9725,16 +9728,16 @@
         <v>80</v>
       </c>
       <c r="M165" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="O165" s="4">
-        <v>61</v>
-      </c>
-      <c r="P165" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="P165" s="4">
+        <v>-61</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -9766,7 +9769,7 @@
         <v>457645</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K166" s="2">
         <v>2014</v>
@@ -9775,16 +9778,16 @@
         <v>39</v>
       </c>
       <c r="M166" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="O166" s="4">
-        <v>1369</v>
-      </c>
-      <c r="P166" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="P166" s="4">
+        <v>-1369</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -9816,7 +9819,7 @@
         <v>237470</v>
       </c>
       <c r="J167" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K167" s="2">
         <v>2010</v>
@@ -9825,16 +9828,16 @@
         <v>39</v>
       </c>
       <c r="M167" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="O167" s="4">
+        <v>134</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="P167" s="4">
         <v>31</v>
-      </c>
-      <c r="P167" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -9866,7 +9869,7 @@
         <v>242576</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K168" s="2">
         <v>2010</v>
@@ -9875,16 +9878,16 @@
         <v>40</v>
       </c>
       <c r="M168" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="O168" s="4">
+        <v>134</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="P168" s="4">
         <v>31</v>
-      </c>
-      <c r="P168" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -9916,7 +9919,7 @@
         <v>253823</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K169" s="2">
         <v>2010</v>
@@ -9925,16 +9928,16 @@
         <v>41</v>
       </c>
       <c r="M169" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="O169" s="4">
+        <v>134</v>
+      </c>
+      <c r="O169" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="P169" s="4">
         <v>59</v>
-      </c>
-      <c r="P169" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -9966,7 +9969,7 @@
         <v>259997</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K170" s="2">
         <v>2010</v>
@@ -9975,16 +9978,16 @@
         <v>42</v>
       </c>
       <c r="M170" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="O170" s="4">
+        <v>134</v>
+      </c>
+      <c r="O170" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="P170" s="4">
         <v>182</v>
-      </c>
-      <c r="P170" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -10016,7 +10019,7 @@
         <v>278807</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K171" s="2">
         <v>2011</v>
@@ -10025,16 +10028,16 @@
         <v>39</v>
       </c>
       <c r="M171" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="O171" s="4">
+        <v>134</v>
+      </c>
+      <c r="O171" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="P171" s="4">
         <v>0</v>
-      </c>
-      <c r="P171" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -10066,7 +10069,7 @@
         <v>280828</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K172" s="2">
         <v>2011</v>
@@ -10075,16 +10078,16 @@
         <v>40</v>
       </c>
       <c r="M172" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="O172" s="4">
+        <v>134</v>
+      </c>
+      <c r="O172" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="P172" s="4">
         <v>0</v>
-      </c>
-      <c r="P172" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -10116,7 +10119,7 @@
         <v>281840</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K173" s="2">
         <v>2011</v>
@@ -10125,16 +10128,16 @@
         <v>41</v>
       </c>
       <c r="M173" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="O173" s="4">
+        <v>134</v>
+      </c>
+      <c r="O173" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="P173" s="4">
         <v>31</v>
-      </c>
-      <c r="P173" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -10166,7 +10169,7 @@
         <v>283008</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K174" s="2">
         <v>2011</v>
@@ -10175,16 +10178,16 @@
         <v>42</v>
       </c>
       <c r="M174" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="O174" s="4">
+        <v>134</v>
+      </c>
+      <c r="O174" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="P174" s="4">
         <v>0</v>
-      </c>
-      <c r="P174" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -10216,7 +10219,7 @@
         <v>285563</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K175" s="2">
         <v>2011</v>
@@ -10225,16 +10228,16 @@
         <v>43</v>
       </c>
       <c r="M175" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="O175" s="4">
+        <v>134</v>
+      </c>
+      <c r="O175" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="P175" s="4">
         <v>0</v>
-      </c>
-      <c r="P175" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -10266,7 +10269,7 @@
         <v>286936</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K176" s="2">
         <v>2011</v>
@@ -10275,16 +10278,16 @@
         <v>44</v>
       </c>
       <c r="M176" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="O176" s="4">
-        <v>30</v>
-      </c>
-      <c r="P176" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O176" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="P176" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="177" spans="1:16">
@@ -10325,16 +10328,16 @@
         <v>39</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="O177" s="4">
+        <v>134</v>
+      </c>
+      <c r="O177" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="P177" s="4">
         <v>31</v>
-      </c>
-      <c r="P177" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="178" spans="1:16">
@@ -10375,16 +10378,16 @@
         <v>40</v>
       </c>
       <c r="M178" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="O178" s="4">
-        <v>31</v>
-      </c>
-      <c r="P178" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O178" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="P178" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="179" spans="1:16">
@@ -10425,16 +10428,16 @@
         <v>39</v>
       </c>
       <c r="M179" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="O179" s="4">
+        <v>134</v>
+      </c>
+      <c r="O179" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="P179" s="4">
         <v>31</v>
-      </c>
-      <c r="P179" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="180" spans="1:16">
@@ -10475,16 +10478,16 @@
         <v>40</v>
       </c>
       <c r="M180" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="O180" s="4">
+        <v>134</v>
+      </c>
+      <c r="O180" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="P180" s="4">
         <v>30</v>
-      </c>
-      <c r="P180" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="181" spans="1:16">
@@ -10525,16 +10528,16 @@
         <v>41</v>
       </c>
       <c r="M181" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="O181" s="4">
+        <v>134</v>
+      </c>
+      <c r="O181" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="P181" s="4">
         <v>31</v>
-      </c>
-      <c r="P181" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="182" spans="1:16">
@@ -10575,16 +10578,16 @@
         <v>42</v>
       </c>
       <c r="M182" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="O182" s="4">
-        <v>31</v>
-      </c>
-      <c r="P182" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O182" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="P182" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10625,16 +10628,16 @@
         <v>41</v>
       </c>
       <c r="M183" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="O183" s="4">
+        <v>134</v>
+      </c>
+      <c r="O183" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P183" s="4">
         <v>31</v>
-      </c>
-      <c r="P183" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="184" spans="1:16">
@@ -10675,16 +10678,16 @@
         <v>42</v>
       </c>
       <c r="M184" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="O184" s="4">
+        <v>134</v>
+      </c>
+      <c r="O184" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="P184" s="4">
         <v>31</v>
-      </c>
-      <c r="P184" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="185" spans="1:16">
@@ -10725,16 +10728,16 @@
         <v>43</v>
       </c>
       <c r="M185" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="O185" s="4">
+        <v>134</v>
+      </c>
+      <c r="O185" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P185" s="4">
         <v>29</v>
-      </c>
-      <c r="P185" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="186" spans="1:16">
@@ -10775,16 +10778,16 @@
         <v>44</v>
       </c>
       <c r="M186" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="O186" s="4">
+        <v>134</v>
+      </c>
+      <c r="O186" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="P186" s="4">
         <v>31</v>
-      </c>
-      <c r="P186" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="187" spans="1:16">
@@ -10825,16 +10828,16 @@
         <v>45</v>
       </c>
       <c r="M187" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="O187" s="4">
+        <v>134</v>
+      </c>
+      <c r="O187" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="P187" s="4">
         <v>30</v>
-      </c>
-      <c r="P187" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="188" spans="1:16">
@@ -10875,16 +10878,16 @@
         <v>46</v>
       </c>
       <c r="M188" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="O188" s="4">
+        <v>134</v>
+      </c>
+      <c r="O188" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="P188" s="4">
         <v>31</v>
-      </c>
-      <c r="P188" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="189" spans="1:16">
@@ -10925,16 +10928,16 @@
         <v>47</v>
       </c>
       <c r="M189" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="O189" s="4">
+        <v>134</v>
+      </c>
+      <c r="O189" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="P189" s="4">
         <v>30</v>
-      </c>
-      <c r="P189" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="190" spans="1:16">
@@ -10975,16 +10978,16 @@
         <v>48</v>
       </c>
       <c r="M190" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="O190" s="4">
+        <v>134</v>
+      </c>
+      <c r="O190" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="P190" s="4">
         <v>0</v>
-      </c>
-      <c r="P190" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="191" spans="1:16">
@@ -11025,16 +11028,16 @@
         <v>49</v>
       </c>
       <c r="M191" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="O191" s="4">
+        <v>134</v>
+      </c>
+      <c r="O191" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="P191" s="4">
         <v>31</v>
-      </c>
-      <c r="P191" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:16">
@@ -11075,16 +11078,16 @@
         <v>50</v>
       </c>
       <c r="M192" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="O192" s="4">
+        <v>134</v>
+      </c>
+      <c r="O192" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="P192" s="4">
         <v>851</v>
-      </c>
-      <c r="P192" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="193" spans="1:16">
@@ -11125,16 +11128,16 @@
         <v>113</v>
       </c>
       <c r="M193" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="O193" s="4">
+        <v>134</v>
+      </c>
+      <c r="O193" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P193" s="4">
         <v>121</v>
-      </c>
-      <c r="P193" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="194" spans="1:16">
@@ -11175,16 +11178,16 @@
         <v>114</v>
       </c>
       <c r="M194" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="O194" s="4">
-        <v>455</v>
-      </c>
-      <c r="P194" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O194" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P194" s="4">
+        <v>-455</v>
       </c>
     </row>
     <row r="195" spans="1:16">
@@ -11225,16 +11228,16 @@
         <v>50</v>
       </c>
       <c r="M195" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="O195" s="4">
+        <v>134</v>
+      </c>
+      <c r="O195" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="P195" s="4">
         <v>31</v>
-      </c>
-      <c r="P195" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="196" spans="1:16">
@@ -11275,16 +11278,16 @@
         <v>51</v>
       </c>
       <c r="M196" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="O196" s="4">
+        <v>134</v>
+      </c>
+      <c r="O196" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="P196" s="4">
         <v>59</v>
-      </c>
-      <c r="P196" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="197" spans="1:16">
@@ -11325,16 +11328,16 @@
         <v>52</v>
       </c>
       <c r="M197" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="O197" s="4">
+        <v>134</v>
+      </c>
+      <c r="O197" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="P197" s="4">
         <v>0</v>
-      </c>
-      <c r="P197" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="198" spans="1:16">
@@ -11375,16 +11378,16 @@
         <v>53</v>
       </c>
       <c r="M198" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O198" s="4">
+        <v>134</v>
+      </c>
+      <c r="O198" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="P198" s="4">
         <v>30</v>
-      </c>
-      <c r="P198" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="199" spans="1:16">
@@ -11425,16 +11428,16 @@
         <v>68</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O199" s="4">
+        <v>134</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="P199" s="4">
         <v>31</v>
-      </c>
-      <c r="P199" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="200" spans="1:16">
@@ -11475,16 +11478,16 @@
         <v>69</v>
       </c>
       <c r="M200" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="O200" s="4">
+        <v>134</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="P200" s="4">
         <v>30</v>
-      </c>
-      <c r="P200" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="201" spans="1:16">
@@ -11525,16 +11528,16 @@
         <v>70</v>
       </c>
       <c r="M201" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="O201" s="4">
+        <v>134</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="P201" s="4">
         <v>31</v>
-      </c>
-      <c r="P201" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="202" spans="1:16">
@@ -11575,16 +11578,16 @@
         <v>71</v>
       </c>
       <c r="M202" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="O202" s="4">
+        <v>134</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="P202" s="4">
         <v>31</v>
-      </c>
-      <c r="P202" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="203" spans="1:16">
@@ -11625,16 +11628,16 @@
         <v>72</v>
       </c>
       <c r="M203" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="O203" s="4">
+        <v>134</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="P203" s="4">
         <v>122</v>
-      </c>
-      <c r="P203" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="204" spans="1:16">
@@ -11675,16 +11678,16 @@
         <v>45</v>
       </c>
       <c r="M204" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="O204" s="4">
+        <v>134</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="P204" s="4">
         <v>31</v>
-      </c>
-      <c r="P204" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="205" spans="1:16">
@@ -11725,16 +11728,16 @@
         <v>46</v>
       </c>
       <c r="M205" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="O205" s="4">
+        <v>134</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="P205" s="4">
         <v>0</v>
-      </c>
-      <c r="P205" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="206" spans="1:16">
@@ -11775,16 +11778,16 @@
         <v>39</v>
       </c>
       <c r="M206" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="O206" s="4">
+        <v>134</v>
+      </c>
+      <c r="O206" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="P206" s="4">
         <v>0</v>
-      </c>
-      <c r="P206" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:16">
@@ -11825,16 +11828,16 @@
         <v>40</v>
       </c>
       <c r="M207" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="O207" s="4">
+        <v>134</v>
+      </c>
+      <c r="O207" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P207" s="4">
         <v>1</v>
-      </c>
-      <c r="P207" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="208" spans="1:16">
@@ -11875,16 +11878,16 @@
         <v>41</v>
       </c>
       <c r="M208" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="O208" s="4">
-        <v>63</v>
-      </c>
-      <c r="P208" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O208" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="P208" s="4">
+        <v>-63</v>
       </c>
     </row>
     <row r="209" spans="1:16">
@@ -11925,16 +11928,16 @@
         <v>39</v>
       </c>
       <c r="M209" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="O209" s="4">
+        <v>134</v>
+      </c>
+      <c r="O209" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P209" s="4">
         <v>62</v>
-      </c>
-      <c r="P209" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="210" spans="1:16">
@@ -11975,16 +11978,16 @@
         <v>40</v>
       </c>
       <c r="M210" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="O210" s="4">
+        <v>134</v>
+      </c>
+      <c r="O210" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="P210" s="4">
         <v>1</v>
-      </c>
-      <c r="P210" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="211" spans="1:16">
@@ -12025,16 +12028,16 @@
         <v>41</v>
       </c>
       <c r="M211" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="O211" s="4">
+        <v>134</v>
+      </c>
+      <c r="O211" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="P211" s="4">
         <v>58</v>
-      </c>
-      <c r="P211" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="212" spans="1:16">
@@ -12075,16 +12078,16 @@
         <v>42</v>
       </c>
       <c r="M212" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="O212" s="4">
-        <v>121</v>
-      </c>
-      <c r="P212" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O212" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="P212" s="4">
+        <v>-121</v>
       </c>
     </row>
     <row r="213" spans="1:16">
@@ -12125,16 +12128,16 @@
         <v>115</v>
       </c>
       <c r="M213" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="O213" s="4">
+        <v>134</v>
+      </c>
+      <c r="O213" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="P213" s="4">
         <v>0</v>
-      </c>
-      <c r="P213" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="214" spans="1:16">
@@ -12175,16 +12178,16 @@
         <v>81</v>
       </c>
       <c r="M214" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="O214" s="4">
+        <v>134</v>
+      </c>
+      <c r="O214" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="P214" s="4">
         <v>31</v>
-      </c>
-      <c r="P214" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="215" spans="1:16">
@@ -12225,16 +12228,16 @@
         <v>116</v>
       </c>
       <c r="M215" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="O215" s="4">
+        <v>134</v>
+      </c>
+      <c r="O215" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="P215" s="4">
         <v>0</v>
-      </c>
-      <c r="P215" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:16">
@@ -12275,16 +12278,16 @@
         <v>82</v>
       </c>
       <c r="M216" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="O216" s="4">
+        <v>134</v>
+      </c>
+      <c r="O216" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="P216" s="4">
         <v>0</v>
-      </c>
-      <c r="P216" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -12325,16 +12328,16 @@
         <v>117</v>
       </c>
       <c r="M217" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="O217" s="4">
+        <v>134</v>
+      </c>
+      <c r="O217" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="P217" s="4">
         <v>31</v>
-      </c>
-      <c r="P217" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="218" spans="1:16">
@@ -12375,16 +12378,16 @@
         <v>83</v>
       </c>
       <c r="M218" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="O218" s="4">
+        <v>134</v>
+      </c>
+      <c r="O218" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="P218" s="4">
         <v>0</v>
-      </c>
-      <c r="P218" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="219" spans="1:16">
@@ -12425,16 +12428,16 @@
         <v>118</v>
       </c>
       <c r="M219" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="O219" s="4">
+        <v>134</v>
+      </c>
+      <c r="O219" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="P219" s="4">
         <v>0</v>
-      </c>
-      <c r="P219" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -12475,16 +12478,16 @@
         <v>84</v>
       </c>
       <c r="M220" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="O220" s="4">
+        <v>134</v>
+      </c>
+      <c r="O220" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="P220" s="4">
         <v>1</v>
-      </c>
-      <c r="P220" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:16">
@@ -12525,16 +12528,16 @@
         <v>119</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="O221" s="4">
+        <v>134</v>
+      </c>
+      <c r="O221" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="P221" s="4">
         <v>0</v>
-      </c>
-      <c r="P221" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:16">
@@ -12575,16 +12578,16 @@
         <v>85</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="O222" s="4">
+        <v>134</v>
+      </c>
+      <c r="O222" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="P222" s="4">
         <v>58</v>
-      </c>
-      <c r="P222" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="223" spans="1:16">
@@ -12625,16 +12628,16 @@
         <v>120</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="O223" s="4">
+        <v>134</v>
+      </c>
+      <c r="O223" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="P223" s="4">
         <v>0</v>
-      </c>
-      <c r="P223" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12675,16 +12678,16 @@
         <v>107</v>
       </c>
       <c r="M224" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="O224" s="4">
+        <v>134</v>
+      </c>
+      <c r="O224" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="P224" s="4">
         <v>30</v>
-      </c>
-      <c r="P224" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="225" spans="1:16">
@@ -12725,16 +12728,16 @@
         <v>121</v>
       </c>
       <c r="M225" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="O225" s="4">
+        <v>134</v>
+      </c>
+      <c r="O225" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="P225" s="4">
         <v>0</v>
-      </c>
-      <c r="P225" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="226" spans="1:16">
@@ -12775,16 +12778,16 @@
         <v>108</v>
       </c>
       <c r="M226" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="O226" s="4">
+        <v>134</v>
+      </c>
+      <c r="O226" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="P226" s="4">
         <v>31</v>
-      </c>
-      <c r="P226" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:16">
@@ -12825,16 +12828,16 @@
         <v>122</v>
       </c>
       <c r="M227" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="O227" s="4">
+        <v>134</v>
+      </c>
+      <c r="O227" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P227" s="4">
         <v>0</v>
-      </c>
-      <c r="P227" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="228" spans="1:16">
@@ -12875,16 +12878,16 @@
         <v>109</v>
       </c>
       <c r="M228" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="O228" s="4">
+        <v>134</v>
+      </c>
+      <c r="O228" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="P228" s="4">
         <v>0</v>
-      </c>
-      <c r="P228" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="229" spans="1:16">
@@ -12925,16 +12928,16 @@
         <v>110</v>
       </c>
       <c r="M229" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="O229" s="4">
+        <v>134</v>
+      </c>
+      <c r="O229" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="P229" s="4">
         <v>30</v>
-      </c>
-      <c r="P229" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="230" spans="1:16">
@@ -12975,16 +12978,16 @@
         <v>123</v>
       </c>
       <c r="M230" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="O230" s="4">
-        <v>30</v>
-      </c>
-      <c r="P230" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
+      </c>
+      <c r="O230" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="P230" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="231" spans="1:16">
@@ -13025,16 +13028,16 @@
         <v>49</v>
       </c>
       <c r="M231" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="O231" s="4">
+        <v>134</v>
+      </c>
+      <c r="O231" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P231" s="4">
         <v>30</v>
-      </c>
-      <c r="P231" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="232" spans="1:16">
@@ -13075,16 +13078,16 @@
         <v>50</v>
       </c>
       <c r="M232" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="O232" s="4">
+        <v>134</v>
+      </c>
+      <c r="O232" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="P232" s="4">
         <v>0</v>
-      </c>
-      <c r="P232" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="233" spans="1:16">
@@ -13125,16 +13128,16 @@
         <v>111</v>
       </c>
       <c r="M233" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="O233" s="4">
+        <v>134</v>
+      </c>
+      <c r="O233" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="P233" s="4">
         <v>0</v>
-      </c>
-      <c r="P233" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="234" spans="1:16">
@@ -13175,253 +13178,253 @@
         <v>124</v>
       </c>
       <c r="M234" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="O234" s="4">
+        <v>134</v>
+      </c>
+      <c r="O234" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="P234" s="4">
         <v>0</v>
-      </c>
-      <c r="P234" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="N14" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N21" r:id="rId20"/>
-    <hyperlink ref="N22" r:id="rId21"/>
-    <hyperlink ref="N23" r:id="rId22"/>
-    <hyperlink ref="N24" r:id="rId23"/>
-    <hyperlink ref="N25" r:id="rId24"/>
-    <hyperlink ref="N26" r:id="rId25"/>
-    <hyperlink ref="N27" r:id="rId26"/>
-    <hyperlink ref="N28" r:id="rId27"/>
-    <hyperlink ref="N29" r:id="rId28"/>
-    <hyperlink ref="N30" r:id="rId29"/>
-    <hyperlink ref="N31" r:id="rId30"/>
-    <hyperlink ref="N32" r:id="rId31"/>
-    <hyperlink ref="N33" r:id="rId32"/>
-    <hyperlink ref="N34" r:id="rId33"/>
-    <hyperlink ref="N35" r:id="rId34"/>
-    <hyperlink ref="N36" r:id="rId35"/>
-    <hyperlink ref="N37" r:id="rId36"/>
-    <hyperlink ref="N38" r:id="rId37"/>
-    <hyperlink ref="N39" r:id="rId38"/>
-    <hyperlink ref="N40" r:id="rId39"/>
-    <hyperlink ref="N41" r:id="rId40"/>
-    <hyperlink ref="N42" r:id="rId41"/>
-    <hyperlink ref="N43" r:id="rId42"/>
-    <hyperlink ref="N44" r:id="rId43"/>
-    <hyperlink ref="N45" r:id="rId44"/>
-    <hyperlink ref="N46" r:id="rId45"/>
-    <hyperlink ref="N47" r:id="rId46"/>
-    <hyperlink ref="N48" r:id="rId47"/>
-    <hyperlink ref="N49" r:id="rId48"/>
-    <hyperlink ref="N50" r:id="rId49"/>
-    <hyperlink ref="N51" r:id="rId50"/>
-    <hyperlink ref="N52" r:id="rId51"/>
-    <hyperlink ref="N53" r:id="rId52"/>
-    <hyperlink ref="N54" r:id="rId53"/>
-    <hyperlink ref="N55" r:id="rId54"/>
-    <hyperlink ref="N56" r:id="rId55"/>
-    <hyperlink ref="N57" r:id="rId56"/>
-    <hyperlink ref="N58" r:id="rId57"/>
-    <hyperlink ref="N59" r:id="rId58"/>
-    <hyperlink ref="N60" r:id="rId59"/>
-    <hyperlink ref="N61" r:id="rId60"/>
-    <hyperlink ref="N62" r:id="rId61"/>
-    <hyperlink ref="N63" r:id="rId62"/>
-    <hyperlink ref="N64" r:id="rId63"/>
-    <hyperlink ref="N65" r:id="rId64"/>
-    <hyperlink ref="N66" r:id="rId65"/>
-    <hyperlink ref="N67" r:id="rId66"/>
-    <hyperlink ref="N68" r:id="rId67"/>
-    <hyperlink ref="N69" r:id="rId68"/>
-    <hyperlink ref="N70" r:id="rId69"/>
-    <hyperlink ref="N71" r:id="rId70"/>
-    <hyperlink ref="N72" r:id="rId71"/>
-    <hyperlink ref="N73" r:id="rId72"/>
-    <hyperlink ref="N74" r:id="rId73"/>
-    <hyperlink ref="N75" r:id="rId74"/>
-    <hyperlink ref="N76" r:id="rId75"/>
-    <hyperlink ref="N77" r:id="rId76"/>
-    <hyperlink ref="N78" r:id="rId77"/>
-    <hyperlink ref="N79" r:id="rId78"/>
-    <hyperlink ref="N80" r:id="rId79"/>
-    <hyperlink ref="N81" r:id="rId80"/>
-    <hyperlink ref="N82" r:id="rId81"/>
-    <hyperlink ref="N83" r:id="rId82"/>
-    <hyperlink ref="N84" r:id="rId83"/>
-    <hyperlink ref="N85" r:id="rId84"/>
-    <hyperlink ref="N86" r:id="rId85"/>
-    <hyperlink ref="N87" r:id="rId86"/>
-    <hyperlink ref="N88" r:id="rId87"/>
-    <hyperlink ref="N89" r:id="rId88"/>
-    <hyperlink ref="N90" r:id="rId89"/>
-    <hyperlink ref="N91" r:id="rId90"/>
-    <hyperlink ref="N92" r:id="rId91"/>
-    <hyperlink ref="N93" r:id="rId92"/>
-    <hyperlink ref="N94" r:id="rId93"/>
-    <hyperlink ref="N95" r:id="rId94"/>
-    <hyperlink ref="N96" r:id="rId95"/>
-    <hyperlink ref="N97" r:id="rId96"/>
-    <hyperlink ref="N98" r:id="rId97"/>
-    <hyperlink ref="N99" r:id="rId98"/>
-    <hyperlink ref="N100" r:id="rId99"/>
-    <hyperlink ref="N101" r:id="rId100"/>
-    <hyperlink ref="N102" r:id="rId101"/>
-    <hyperlink ref="N103" r:id="rId102"/>
-    <hyperlink ref="N104" r:id="rId103"/>
-    <hyperlink ref="N105" r:id="rId104"/>
-    <hyperlink ref="N106" r:id="rId105"/>
-    <hyperlink ref="N107" r:id="rId106"/>
-    <hyperlink ref="N108" r:id="rId107"/>
-    <hyperlink ref="N109" r:id="rId108"/>
-    <hyperlink ref="N110" r:id="rId109"/>
-    <hyperlink ref="N111" r:id="rId110"/>
-    <hyperlink ref="N112" r:id="rId111"/>
-    <hyperlink ref="N113" r:id="rId112"/>
-    <hyperlink ref="N114" r:id="rId113"/>
-    <hyperlink ref="N115" r:id="rId114"/>
-    <hyperlink ref="N116" r:id="rId115"/>
-    <hyperlink ref="N117" r:id="rId116"/>
-    <hyperlink ref="N118" r:id="rId117"/>
-    <hyperlink ref="N119" r:id="rId118"/>
-    <hyperlink ref="N120" r:id="rId119"/>
-    <hyperlink ref="N121" r:id="rId120"/>
-    <hyperlink ref="N122" r:id="rId121"/>
-    <hyperlink ref="N123" r:id="rId122"/>
-    <hyperlink ref="N124" r:id="rId123"/>
-    <hyperlink ref="N125" r:id="rId124"/>
-    <hyperlink ref="N126" r:id="rId125"/>
-    <hyperlink ref="N127" r:id="rId126"/>
-    <hyperlink ref="N128" r:id="rId127"/>
-    <hyperlink ref="N129" r:id="rId128"/>
-    <hyperlink ref="N130" r:id="rId129"/>
-    <hyperlink ref="N131" r:id="rId130"/>
-    <hyperlink ref="N132" r:id="rId131"/>
-    <hyperlink ref="N133" r:id="rId132"/>
-    <hyperlink ref="N134" r:id="rId133"/>
-    <hyperlink ref="N135" r:id="rId134"/>
-    <hyperlink ref="N136" r:id="rId135"/>
-    <hyperlink ref="N137" r:id="rId136"/>
-    <hyperlink ref="N138" r:id="rId137"/>
-    <hyperlink ref="N139" r:id="rId138"/>
-    <hyperlink ref="N140" r:id="rId139"/>
-    <hyperlink ref="N141" r:id="rId140"/>
-    <hyperlink ref="N142" r:id="rId141"/>
-    <hyperlink ref="N143" r:id="rId142"/>
-    <hyperlink ref="N144" r:id="rId143"/>
-    <hyperlink ref="N145" r:id="rId144"/>
-    <hyperlink ref="N146" r:id="rId145"/>
-    <hyperlink ref="N147" r:id="rId146"/>
-    <hyperlink ref="N148" r:id="rId147"/>
-    <hyperlink ref="N149" r:id="rId148"/>
-    <hyperlink ref="N150" r:id="rId149"/>
-    <hyperlink ref="N151" r:id="rId150"/>
-    <hyperlink ref="N152" r:id="rId151"/>
-    <hyperlink ref="N153" r:id="rId152"/>
-    <hyperlink ref="N154" r:id="rId153"/>
-    <hyperlink ref="N155" r:id="rId154"/>
-    <hyperlink ref="N156" r:id="rId155"/>
-    <hyperlink ref="N157" r:id="rId156"/>
-    <hyperlink ref="N158" r:id="rId157"/>
-    <hyperlink ref="N159" r:id="rId158"/>
-    <hyperlink ref="N160" r:id="rId159"/>
-    <hyperlink ref="N161" r:id="rId160"/>
-    <hyperlink ref="N162" r:id="rId161"/>
-    <hyperlink ref="N163" r:id="rId162"/>
-    <hyperlink ref="N164" r:id="rId163"/>
-    <hyperlink ref="N165" r:id="rId164"/>
-    <hyperlink ref="N166" r:id="rId165"/>
-    <hyperlink ref="N167" r:id="rId166"/>
-    <hyperlink ref="N168" r:id="rId167"/>
-    <hyperlink ref="N169" r:id="rId168"/>
-    <hyperlink ref="N170" r:id="rId169"/>
-    <hyperlink ref="N171" r:id="rId170"/>
-    <hyperlink ref="N172" r:id="rId171"/>
-    <hyperlink ref="N173" r:id="rId172"/>
-    <hyperlink ref="N174" r:id="rId173"/>
-    <hyperlink ref="N175" r:id="rId174"/>
-    <hyperlink ref="N176" r:id="rId175"/>
-    <hyperlink ref="N177" r:id="rId176"/>
-    <hyperlink ref="N178" r:id="rId177"/>
-    <hyperlink ref="N179" r:id="rId178"/>
-    <hyperlink ref="N180" r:id="rId179"/>
-    <hyperlink ref="N181" r:id="rId180"/>
-    <hyperlink ref="N182" r:id="rId181"/>
-    <hyperlink ref="N183" r:id="rId182"/>
-    <hyperlink ref="N184" r:id="rId183"/>
-    <hyperlink ref="N185" r:id="rId184"/>
-    <hyperlink ref="N186" r:id="rId185"/>
-    <hyperlink ref="N187" r:id="rId186"/>
-    <hyperlink ref="N188" r:id="rId187"/>
-    <hyperlink ref="N189" r:id="rId188"/>
-    <hyperlink ref="N190" r:id="rId189"/>
-    <hyperlink ref="N191" r:id="rId190"/>
-    <hyperlink ref="N192" r:id="rId191"/>
-    <hyperlink ref="N193" r:id="rId192"/>
-    <hyperlink ref="N194" r:id="rId193"/>
-    <hyperlink ref="N195" r:id="rId194"/>
-    <hyperlink ref="N196" r:id="rId195"/>
-    <hyperlink ref="N197" r:id="rId196"/>
-    <hyperlink ref="N198" r:id="rId197"/>
-    <hyperlink ref="N199" r:id="rId198"/>
-    <hyperlink ref="N200" r:id="rId199"/>
-    <hyperlink ref="N201" r:id="rId200"/>
-    <hyperlink ref="N202" r:id="rId201"/>
-    <hyperlink ref="N203" r:id="rId202"/>
-    <hyperlink ref="N204" r:id="rId203"/>
-    <hyperlink ref="N205" r:id="rId204"/>
-    <hyperlink ref="N206" r:id="rId205"/>
-    <hyperlink ref="N207" r:id="rId206"/>
-    <hyperlink ref="N208" r:id="rId207"/>
-    <hyperlink ref="N209" r:id="rId208"/>
-    <hyperlink ref="N210" r:id="rId209"/>
-    <hyperlink ref="N211" r:id="rId210"/>
-    <hyperlink ref="N212" r:id="rId211"/>
-    <hyperlink ref="N213" r:id="rId212"/>
-    <hyperlink ref="N214" r:id="rId213"/>
-    <hyperlink ref="N215" r:id="rId214"/>
-    <hyperlink ref="N216" r:id="rId215"/>
-    <hyperlink ref="N217" r:id="rId216"/>
-    <hyperlink ref="N218" r:id="rId217"/>
-    <hyperlink ref="N219" r:id="rId218"/>
-    <hyperlink ref="N220" r:id="rId219"/>
-    <hyperlink ref="N221" r:id="rId220"/>
-    <hyperlink ref="N222" r:id="rId221"/>
-    <hyperlink ref="N223" r:id="rId222"/>
-    <hyperlink ref="N224" r:id="rId223"/>
-    <hyperlink ref="N225" r:id="rId224"/>
-    <hyperlink ref="N226" r:id="rId225"/>
-    <hyperlink ref="N227" r:id="rId226"/>
-    <hyperlink ref="N228" r:id="rId227"/>
-    <hyperlink ref="N229" r:id="rId228"/>
-    <hyperlink ref="N230" r:id="rId229"/>
-    <hyperlink ref="N231" r:id="rId230"/>
-    <hyperlink ref="N232" r:id="rId231"/>
-    <hyperlink ref="N233" r:id="rId232"/>
-    <hyperlink ref="N234" r:id="rId233"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
+    <hyperlink ref="O26" r:id="rId25"/>
+    <hyperlink ref="O27" r:id="rId26"/>
+    <hyperlink ref="O28" r:id="rId27"/>
+    <hyperlink ref="O29" r:id="rId28"/>
+    <hyperlink ref="O30" r:id="rId29"/>
+    <hyperlink ref="O31" r:id="rId30"/>
+    <hyperlink ref="O32" r:id="rId31"/>
+    <hyperlink ref="O33" r:id="rId32"/>
+    <hyperlink ref="O34" r:id="rId33"/>
+    <hyperlink ref="O35" r:id="rId34"/>
+    <hyperlink ref="O36" r:id="rId35"/>
+    <hyperlink ref="O37" r:id="rId36"/>
+    <hyperlink ref="O38" r:id="rId37"/>
+    <hyperlink ref="O39" r:id="rId38"/>
+    <hyperlink ref="O40" r:id="rId39"/>
+    <hyperlink ref="O41" r:id="rId40"/>
+    <hyperlink ref="O42" r:id="rId41"/>
+    <hyperlink ref="O43" r:id="rId42"/>
+    <hyperlink ref="O44" r:id="rId43"/>
+    <hyperlink ref="O45" r:id="rId44"/>
+    <hyperlink ref="O46" r:id="rId45"/>
+    <hyperlink ref="O47" r:id="rId46"/>
+    <hyperlink ref="O48" r:id="rId47"/>
+    <hyperlink ref="O49" r:id="rId48"/>
+    <hyperlink ref="O50" r:id="rId49"/>
+    <hyperlink ref="O51" r:id="rId50"/>
+    <hyperlink ref="O52" r:id="rId51"/>
+    <hyperlink ref="O53" r:id="rId52"/>
+    <hyperlink ref="O54" r:id="rId53"/>
+    <hyperlink ref="O55" r:id="rId54"/>
+    <hyperlink ref="O56" r:id="rId55"/>
+    <hyperlink ref="O57" r:id="rId56"/>
+    <hyperlink ref="O58" r:id="rId57"/>
+    <hyperlink ref="O59" r:id="rId58"/>
+    <hyperlink ref="O60" r:id="rId59"/>
+    <hyperlink ref="O61" r:id="rId60"/>
+    <hyperlink ref="O62" r:id="rId61"/>
+    <hyperlink ref="O63" r:id="rId62"/>
+    <hyperlink ref="O64" r:id="rId63"/>
+    <hyperlink ref="O65" r:id="rId64"/>
+    <hyperlink ref="O66" r:id="rId65"/>
+    <hyperlink ref="O67" r:id="rId66"/>
+    <hyperlink ref="O68" r:id="rId67"/>
+    <hyperlink ref="O69" r:id="rId68"/>
+    <hyperlink ref="O70" r:id="rId69"/>
+    <hyperlink ref="O71" r:id="rId70"/>
+    <hyperlink ref="O72" r:id="rId71"/>
+    <hyperlink ref="O73" r:id="rId72"/>
+    <hyperlink ref="O74" r:id="rId73"/>
+    <hyperlink ref="O75" r:id="rId74"/>
+    <hyperlink ref="O76" r:id="rId75"/>
+    <hyperlink ref="O77" r:id="rId76"/>
+    <hyperlink ref="O78" r:id="rId77"/>
+    <hyperlink ref="O79" r:id="rId78"/>
+    <hyperlink ref="O80" r:id="rId79"/>
+    <hyperlink ref="O81" r:id="rId80"/>
+    <hyperlink ref="O82" r:id="rId81"/>
+    <hyperlink ref="O83" r:id="rId82"/>
+    <hyperlink ref="O84" r:id="rId83"/>
+    <hyperlink ref="O85" r:id="rId84"/>
+    <hyperlink ref="O86" r:id="rId85"/>
+    <hyperlink ref="O87" r:id="rId86"/>
+    <hyperlink ref="O88" r:id="rId87"/>
+    <hyperlink ref="O89" r:id="rId88"/>
+    <hyperlink ref="O90" r:id="rId89"/>
+    <hyperlink ref="O91" r:id="rId90"/>
+    <hyperlink ref="O92" r:id="rId91"/>
+    <hyperlink ref="O93" r:id="rId92"/>
+    <hyperlink ref="O94" r:id="rId93"/>
+    <hyperlink ref="O95" r:id="rId94"/>
+    <hyperlink ref="O96" r:id="rId95"/>
+    <hyperlink ref="O97" r:id="rId96"/>
+    <hyperlink ref="O98" r:id="rId97"/>
+    <hyperlink ref="O99" r:id="rId98"/>
+    <hyperlink ref="O100" r:id="rId99"/>
+    <hyperlink ref="O101" r:id="rId100"/>
+    <hyperlink ref="O102" r:id="rId101"/>
+    <hyperlink ref="O103" r:id="rId102"/>
+    <hyperlink ref="O104" r:id="rId103"/>
+    <hyperlink ref="O105" r:id="rId104"/>
+    <hyperlink ref="O106" r:id="rId105"/>
+    <hyperlink ref="O107" r:id="rId106"/>
+    <hyperlink ref="O108" r:id="rId107"/>
+    <hyperlink ref="O109" r:id="rId108"/>
+    <hyperlink ref="O110" r:id="rId109"/>
+    <hyperlink ref="O111" r:id="rId110"/>
+    <hyperlink ref="O112" r:id="rId111"/>
+    <hyperlink ref="O113" r:id="rId112"/>
+    <hyperlink ref="O114" r:id="rId113"/>
+    <hyperlink ref="O115" r:id="rId114"/>
+    <hyperlink ref="O116" r:id="rId115"/>
+    <hyperlink ref="O117" r:id="rId116"/>
+    <hyperlink ref="O118" r:id="rId117"/>
+    <hyperlink ref="O119" r:id="rId118"/>
+    <hyperlink ref="O120" r:id="rId119"/>
+    <hyperlink ref="O121" r:id="rId120"/>
+    <hyperlink ref="O122" r:id="rId121"/>
+    <hyperlink ref="O123" r:id="rId122"/>
+    <hyperlink ref="O124" r:id="rId123"/>
+    <hyperlink ref="O125" r:id="rId124"/>
+    <hyperlink ref="O126" r:id="rId125"/>
+    <hyperlink ref="O127" r:id="rId126"/>
+    <hyperlink ref="O128" r:id="rId127"/>
+    <hyperlink ref="O129" r:id="rId128"/>
+    <hyperlink ref="O130" r:id="rId129"/>
+    <hyperlink ref="O131" r:id="rId130"/>
+    <hyperlink ref="O132" r:id="rId131"/>
+    <hyperlink ref="O133" r:id="rId132"/>
+    <hyperlink ref="O134" r:id="rId133"/>
+    <hyperlink ref="O135" r:id="rId134"/>
+    <hyperlink ref="O136" r:id="rId135"/>
+    <hyperlink ref="O137" r:id="rId136"/>
+    <hyperlink ref="O138" r:id="rId137"/>
+    <hyperlink ref="O139" r:id="rId138"/>
+    <hyperlink ref="O140" r:id="rId139"/>
+    <hyperlink ref="O141" r:id="rId140"/>
+    <hyperlink ref="O142" r:id="rId141"/>
+    <hyperlink ref="O143" r:id="rId142"/>
+    <hyperlink ref="O144" r:id="rId143"/>
+    <hyperlink ref="O145" r:id="rId144"/>
+    <hyperlink ref="O146" r:id="rId145"/>
+    <hyperlink ref="O147" r:id="rId146"/>
+    <hyperlink ref="O148" r:id="rId147"/>
+    <hyperlink ref="O149" r:id="rId148"/>
+    <hyperlink ref="O150" r:id="rId149"/>
+    <hyperlink ref="O151" r:id="rId150"/>
+    <hyperlink ref="O152" r:id="rId151"/>
+    <hyperlink ref="O153" r:id="rId152"/>
+    <hyperlink ref="O154" r:id="rId153"/>
+    <hyperlink ref="O155" r:id="rId154"/>
+    <hyperlink ref="O156" r:id="rId155"/>
+    <hyperlink ref="O157" r:id="rId156"/>
+    <hyperlink ref="O158" r:id="rId157"/>
+    <hyperlink ref="O159" r:id="rId158"/>
+    <hyperlink ref="O160" r:id="rId159"/>
+    <hyperlink ref="O161" r:id="rId160"/>
+    <hyperlink ref="O162" r:id="rId161"/>
+    <hyperlink ref="O163" r:id="rId162"/>
+    <hyperlink ref="O164" r:id="rId163"/>
+    <hyperlink ref="O165" r:id="rId164"/>
+    <hyperlink ref="O166" r:id="rId165"/>
+    <hyperlink ref="O167" r:id="rId166"/>
+    <hyperlink ref="O168" r:id="rId167"/>
+    <hyperlink ref="O169" r:id="rId168"/>
+    <hyperlink ref="O170" r:id="rId169"/>
+    <hyperlink ref="O171" r:id="rId170"/>
+    <hyperlink ref="O172" r:id="rId171"/>
+    <hyperlink ref="O173" r:id="rId172"/>
+    <hyperlink ref="O174" r:id="rId173"/>
+    <hyperlink ref="O175" r:id="rId174"/>
+    <hyperlink ref="O176" r:id="rId175"/>
+    <hyperlink ref="O177" r:id="rId176"/>
+    <hyperlink ref="O178" r:id="rId177"/>
+    <hyperlink ref="O179" r:id="rId178"/>
+    <hyperlink ref="O180" r:id="rId179"/>
+    <hyperlink ref="O181" r:id="rId180"/>
+    <hyperlink ref="O182" r:id="rId181"/>
+    <hyperlink ref="O183" r:id="rId182"/>
+    <hyperlink ref="O184" r:id="rId183"/>
+    <hyperlink ref="O185" r:id="rId184"/>
+    <hyperlink ref="O186" r:id="rId185"/>
+    <hyperlink ref="O187" r:id="rId186"/>
+    <hyperlink ref="O188" r:id="rId187"/>
+    <hyperlink ref="O189" r:id="rId188"/>
+    <hyperlink ref="O190" r:id="rId189"/>
+    <hyperlink ref="O191" r:id="rId190"/>
+    <hyperlink ref="O192" r:id="rId191"/>
+    <hyperlink ref="O193" r:id="rId192"/>
+    <hyperlink ref="O194" r:id="rId193"/>
+    <hyperlink ref="O195" r:id="rId194"/>
+    <hyperlink ref="O196" r:id="rId195"/>
+    <hyperlink ref="O197" r:id="rId196"/>
+    <hyperlink ref="O198" r:id="rId197"/>
+    <hyperlink ref="O199" r:id="rId198"/>
+    <hyperlink ref="O200" r:id="rId199"/>
+    <hyperlink ref="O201" r:id="rId200"/>
+    <hyperlink ref="O202" r:id="rId201"/>
+    <hyperlink ref="O203" r:id="rId202"/>
+    <hyperlink ref="O204" r:id="rId203"/>
+    <hyperlink ref="O205" r:id="rId204"/>
+    <hyperlink ref="O206" r:id="rId205"/>
+    <hyperlink ref="O207" r:id="rId206"/>
+    <hyperlink ref="O208" r:id="rId207"/>
+    <hyperlink ref="O209" r:id="rId208"/>
+    <hyperlink ref="O210" r:id="rId209"/>
+    <hyperlink ref="O211" r:id="rId210"/>
+    <hyperlink ref="O212" r:id="rId211"/>
+    <hyperlink ref="O213" r:id="rId212"/>
+    <hyperlink ref="O214" r:id="rId213"/>
+    <hyperlink ref="O215" r:id="rId214"/>
+    <hyperlink ref="O216" r:id="rId215"/>
+    <hyperlink ref="O217" r:id="rId216"/>
+    <hyperlink ref="O218" r:id="rId217"/>
+    <hyperlink ref="O219" r:id="rId218"/>
+    <hyperlink ref="O220" r:id="rId219"/>
+    <hyperlink ref="O221" r:id="rId220"/>
+    <hyperlink ref="O222" r:id="rId221"/>
+    <hyperlink ref="O223" r:id="rId222"/>
+    <hyperlink ref="O224" r:id="rId223"/>
+    <hyperlink ref="O225" r:id="rId224"/>
+    <hyperlink ref="O226" r:id="rId225"/>
+    <hyperlink ref="O227" r:id="rId226"/>
+    <hyperlink ref="O228" r:id="rId227"/>
+    <hyperlink ref="O229" r:id="rId228"/>
+    <hyperlink ref="O230" r:id="rId229"/>
+    <hyperlink ref="O231" r:id="rId230"/>
+    <hyperlink ref="O232" r:id="rId231"/>
+    <hyperlink ref="O233" r:id="rId232"/>
+    <hyperlink ref="O234" r:id="rId233"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
